--- a/xlsx/印度教_intext.xlsx
+++ b/xlsx/印度教_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="883">
   <si>
     <t>印度教</t>
   </si>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9E%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>南亞次大陸</t>
+    <t>南亚次大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%95%E5%A9%86%E6%95%99</t>
   </si>
   <si>
-    <t>濕婆教</t>
+    <t>湿婆教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%97%E6%B9%BF%E5%A5%B4%E6%B4%BE</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%85%8B%E9%81%94%E6%95%99</t>
   </si>
   <si>
-    <t>沙克達教</t>
+    <t>沙克达教</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hindu_denominations</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%AD</t>
   </si>
   <si>
-    <t>業</t>
+    <t>业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95_(%E5%8D%B0%E5%BA%A6%E5%93%B2%E5%AD%B8)</t>
   </si>
   <si>
-    <t>法 (印度哲學)</t>
+    <t>法 (印度哲学)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dharmasastra</t>
@@ -209,25 +209,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%AD%E5%A0%B1_(%E5%8D%B0%E5%BA%A6%E6%95%99)</t>
   </si>
   <si>
-    <t>業報 (印度教)</t>
+    <t>业报 (印度教)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A9%86%E7%BE%85%E9%96%80</t>
   </si>
   <si>
-    <t>婆羅門</t>
+    <t>婆罗门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%99%80%E7%BE%85</t>
   </si>
   <si>
-    <t>首陀羅</t>
+    <t>首陀罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%A4%E6%B0%91</t>
   </si>
   <si>
-    <t>賤民</t>
+    <t>贱民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E5%A7%93%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>種姓制度</t>
+    <t>种姓制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E4%BA%BA</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>外國人</t>
+    <t>外国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%9B%E6%95%99</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E9%87%8C%E5%8D%97</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94</t>
   </si>
   <si>
-    <t>卡達</t>
+    <t>卡达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%99%E5%B0%BC%E6%B1%AA</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9B%BC</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>東方哲學</t>
+    <t>东方哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E5%85%8B%E6%95%99</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%8D%B0%E5%BA%A6%E7%A5%9E%E8%A9%B1</t>
   </si>
   <si>
-    <t>Template talk-印度神話</t>
+    <t>Template talk-印度神话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%91_(%E5%8D%B0%E5%BA%A6%E6%95%99)</t>
@@ -521,13 +521,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%AA%E8%BF%B4</t>
   </si>
   <si>
-    <t>輪迴</t>
+    <t>轮回</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E8%84%AB</t>
   </si>
   <si>
-    <t>解脫</t>
+    <t>解脱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%A0%E6%AA%80%E5%A4%9A%E5%AD%A6%E6%B4%BE</t>
@@ -545,19 +545,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A0%E9%A3%9F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>素食主義</t>
+    <t>素食主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E7%88%BE%E9%82%A3</t>
   </si>
   <si>
-    <t>瓦爾那</t>
+    <t>瓦尔那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E5%A9%86_(%E5%8D%B0%E5%BA%A6%E7%A5%9E%E8%A9%B1)</t>
   </si>
   <si>
-    <t>提婆 (印度神話)</t>
+    <t>提婆 (印度神话)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%99%E4%BA%BA_(%E5%8D%B0%E5%BA%A6%E7%A5%9E%E8%AF%9D)</t>
@@ -575,13 +575,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%89%8E</t>
   </si>
   <si>
-    <t>羅剎</t>
+    <t>罗刹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%BE%E9%97%BC%E5%A9%86</t>
   </si>
   <si>
-    <t>乾闼婆</t>
+    <t>干闼婆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9C%E5%8F%89</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%A6%E6%A8%93%E7%BE%85</t>
   </si>
   <si>
-    <t>迦樓羅</t>
+    <t>迦楼罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A3%E4%BC%BD</t>
@@ -623,19 +623,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E4%BD%8D%E8%AD%B7%E6%B3%95</t>
   </si>
   <si>
-    <t>方位護法</t>
+    <t>方位护法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%91%A9</t>
   </si>
   <si>
-    <t>蘇摩</t>
+    <t>苏摩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%97%E6%BF%95%E5%A5%B4</t>
   </si>
   <si>
-    <t>毗濕奴</t>
+    <t>毗湿奴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%BF%E5%A9%86</t>
@@ -647,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E9%99%80%E7%BE%85</t>
   </si>
   <si>
-    <t>因陀羅</t>
+    <t>因陀罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%80%86%E5%B0%BC</t>
@@ -683,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%BB%E6%91%A9</t>
   </si>
   <si>
-    <t>閻摩</t>
+    <t>阎摩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%97%E9%A6%96%E7%BE%AF%E7%A3%A8</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%B1%E6%AF%97%E7%BE%85</t>
   </si>
   <si>
-    <t>俱毗羅</t>
+    <t>俱毗罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E5%88%A9%E8%80%B6</t>
@@ -899,13 +899,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BC%AF%E6%8B%89%E7%BD%95%E8%AB%B8%E6%95%99</t>
   </si>
   <si>
-    <t>亞伯拉罕諸教</t>
+    <t>亚伯拉罕诸教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99%E4%BF%9D%E5%AE%88%E6%B4%BE</t>
   </si>
   <si>
-    <t>猶太教保守派</t>
+    <t>犹太教保守派</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Haymanot</t>
@@ -923,13 +923,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99%E6%AD%A3%E7%B5%B1%E6%B4%BE</t>
   </si>
   <si>
-    <t>猶太教正統派</t>
+    <t>犹太教正统派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99%E6%94%B9%E9%9D%A9%E6%B4%BE</t>
   </si>
   <si>
-    <t>猶太教改革派</t>
+    <t>犹太教改革派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%85%AC%E5%AE%97</t>
@@ -965,13 +965,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>正教會</t>
+    <t>正教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E6%AD%A3%E7%B5%B1%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>東方正統教會</t>
+    <t>东方正统教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
@@ -1007,13 +1007,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%9C%E5%B0%BC%E6%B4%BE</t>
   </si>
   <si>
-    <t>遜尼派</t>
+    <t>逊尼派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%80%E5%8F%B6%E6%B4%BE</t>
@@ -1043,7 +1040,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E7%8D%A8%E5%8F%A4%E8%98%AD%E7%B6%93</t>
   </si>
   <si>
-    <t>唯獨古蘭經</t>
+    <t>唯独古兰经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%AF%94%E6%95%99</t>
@@ -1073,7 +1070,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E9%81%94%E5%AE%89%E6%95%99</t>
   </si>
   <si>
-    <t>曼達安教</t>
+    <t>曼达安教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%AF%E5%A1%94%E6%B3%95%E9%87%8C%E8%BF%90%E5%8A%A8</t>
@@ -1085,7 +1082,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E9%A6%AC%E5%88%A9%E4%BA%9E%E4%BA%BA</t>
   </si>
   <si>
-    <t>撒馬利亞人</t>
+    <t>撒马利亚人</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Indian_religions</t>
@@ -1103,7 +1100,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BA%9E%E7%93%A6%E8%8A%9D</t>
   </si>
   <si>
-    <t>阿亞瓦芝</t>
+    <t>阿亚瓦芝</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Smartism</t>
@@ -1205,19 +1202,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%BE%B7%E9%AD%AF%E4%BC%8A%E4%BF%A1%E4%BB%B0</t>
   </si>
   <si>
-    <t>新德魯伊信仰</t>
+    <t>新德鲁伊信仰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%80%B3%E6%9B%BC%E6%96%B0%E7%95%B0%E6%95%99%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>日耳曼新異教運動</t>
+    <t>日耳曼新异教运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%A4%9A%E7%A5%9E%E6%95%99_(%E5%BE%A9%E8%88%88)</t>
   </si>
   <si>
-    <t>希臘多神教 (復興)</t>
+    <t>希腊多神教 (复兴)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Italo-Roman_neopaganism</t>
@@ -1319,7 +1316,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E7%A7%98%E5%AF%86%E5%AE%97%E6%95%99</t>
   </si>
   <si>
-    <t>中國秘密宗教</t>
+    <t>中国秘密宗教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%95%99</t>
@@ -1373,7 +1370,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%B7%AB%E6%95%99</t>
   </si>
   <si>
-    <t>朝鮮巫教</t>
+    <t>朝鲜巫教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8F%B0%E6%95%99</t>
@@ -1415,7 +1412,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%B7%B4%E6%95%99</t>
   </si>
   <si>
-    <t>東巴教</t>
+    <t>东巴教</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ua_Dab</t>
@@ -1775,25 +1772,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%80%9D%E6%83%B3%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>新思想運動</t>
+    <t>新思想运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E7%88%BE%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>雷爾運動</t>
+    <t>雷尔运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E9%81%94%E5%9F%BA</t>
   </si>
   <si>
-    <t>山達基</t>
+    <t>山达基</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%8B%92%E7%91%AA</t>
   </si>
   <si>
-    <t>泰勒瑪</t>
+    <t>泰勒玛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%A5%9E%E6%99%AE%E6%95%91%E6%B4%BE</t>
@@ -1943,7 +1940,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%8B%89%E5%A4%AB%E7%A5%9E%E8%A9%B1</t>
   </si>
   <si>
-    <t>斯拉夫神話</t>
+    <t>斯拉夫神话</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Religious_disaffiliation</t>
@@ -1979,7 +1976,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E8%87%B4%E5%B9%BB%E5%8A%91</t>
   </si>
   <si>
-    <t>宗教致幻劑</t>
+    <t>宗教致幻剂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%B4%BE</t>
@@ -2057,7 +2054,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%B5%B1_(%E4%BF%A1%E4%BB%B0)</t>
   </si>
   <si>
-    <t>正統 (信仰)</t>
+    <t>正统 (信仰)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Orthopraxy</t>
@@ -2075,7 +2072,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E9%AB%94%E9%A9%97</t>
   </si>
   <si>
-    <t>宗教體驗</t>
+    <t>宗教体验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%AA%E5%BC%8F</t>
@@ -2087,7 +2084,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E6%8B%9C%E5%84%80%E5%BC%8F</t>
   </si>
   <si>
-    <t>禮拜儀式</t>
+    <t>礼拜仪式</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%BA%E7%89%B2</t>
@@ -2141,7 +2138,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E9%9D%88%E8%AB%96</t>
   </si>
   <si>
-    <t>泛靈論</t>
+    <t>泛灵论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%A5%9E%E8%AE%BA</t>
@@ -2201,13 +2198,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%A5%9E%E8%AB%96</t>
   </si>
   <si>
-    <t>無神論</t>
+    <t>无神论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E4%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>世俗主義</t>
+    <t>世俗主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%AE%97%E6%95%99</t>
@@ -2225,9 +2222,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E7%A5%9E%E8%AE%BA</t>
   </si>
   <si>
-    <t>无神论</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9E%E8%A1%8C%E9%9D%A2%E6%9D%A1%E6%80%AA%E7%89%A9</t>
   </si>
   <si>
@@ -2249,7 +2243,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%84%A1%E7%A5%9E%E8%AB%96</t>
   </si>
   <si>
-    <t>新無神論</t>
+    <t>新无神论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%BA%E4%B8%96%E8%AE%BA</t>
@@ -2279,7 +2273,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%A7%80%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>客觀主義</t>
+    <t>客观主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Secular_humanism</t>
@@ -2309,7 +2303,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%8F%E6%98%8E%E7%B2%89%E7%B4%85%E7%8D%A8%E8%A7%92%E7%8D%B8</t>
   </si>
   <si>
-    <t>透明粉紅獨角獸</t>
+    <t>透明粉红独角兽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%AD%A6</t>
@@ -2333,7 +2327,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E6%AF%94%E8%BC%83</t>
   </si>
   <si>
-    <t>宗教比較</t>
+    <t>宗教比较</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%8F%91%E5%B1%95</t>
@@ -2369,7 +2363,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>宗教心理學</t>
+    <t>宗教心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -2411,7 +2405,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%A6%8F%E9%9F%B3</t>
   </si>
   <si>
-    <t>傳福音</t>
+    <t>传福音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E6%95%99%E5%A3%AB</t>
@@ -2453,13 +2447,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%9C%E6%94%9D</t>
   </si>
   <si>
-    <t>綜攝</t>
+    <t>综摄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AC%E5%AE%B9</t>
   </si>
   <si>
-    <t>寬容</t>
+    <t>宽容</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E4%B8%96%E4%B8%BB%E4%B9%89</t>
@@ -2471,7 +2465,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E6%95%99%E6%97%A8%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>原教旨主義</t>
+    <t>原教旨主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E4%B8%8E%E5%B9%B8%E7%A6%8F</t>
@@ -2483,7 +2477,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E8%88%87%E5%90%8C%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>宗教與同性戀</t>
+    <t>宗教与同性恋</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Minority_religion</t>
@@ -2531,7 +2525,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%95%99</t>
   </si>
   <si>
-    <t>國教</t>
+    <t>国教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%9D%83%E6%94%BF%E6%B2%BB</t>
@@ -2585,7 +2579,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%87%8D%E5%AE%97%E6%95%99%E8%BA%AB%E4%BB%BD%E8%AA%8D%E5%90%8C</t>
   </si>
   <si>
-    <t>多重宗教身份認同</t>
+    <t>多重宗教身份认同</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9F%BA%E7%9D%A3%E6%95%99</t>
@@ -2657,7 +2651,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2669,7 +2663,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
 </sst>
 </file>
@@ -7912,7 +7906,7 @@
         <v>329</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>30</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -7938,10 +7932,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>330</v>
+      </c>
+      <c r="F170" t="s">
         <v>331</v>
-      </c>
-      <c r="F170" t="s">
-        <v>332</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7967,10 +7961,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>332</v>
+      </c>
+      <c r="F171" t="s">
         <v>333</v>
-      </c>
-      <c r="F171" t="s">
-        <v>334</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7996,10 +7990,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>334</v>
+      </c>
+      <c r="F172" t="s">
         <v>335</v>
-      </c>
-      <c r="F172" t="s">
-        <v>336</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -8025,10 +8019,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>336</v>
+      </c>
+      <c r="F173" t="s">
         <v>337</v>
-      </c>
-      <c r="F173" t="s">
-        <v>338</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8054,10 +8048,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>338</v>
+      </c>
+      <c r="F174" t="s">
         <v>339</v>
-      </c>
-      <c r="F174" t="s">
-        <v>340</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8083,10 +8077,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>340</v>
+      </c>
+      <c r="F175" t="s">
         <v>341</v>
-      </c>
-      <c r="F175" t="s">
-        <v>342</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -8112,10 +8106,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>342</v>
+      </c>
+      <c r="F176" t="s">
         <v>343</v>
-      </c>
-      <c r="F176" t="s">
-        <v>344</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -8141,10 +8135,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>344</v>
+      </c>
+      <c r="F177" t="s">
         <v>345</v>
-      </c>
-      <c r="F177" t="s">
-        <v>346</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8170,10 +8164,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>346</v>
+      </c>
+      <c r="F178" t="s">
         <v>347</v>
-      </c>
-      <c r="F178" t="s">
-        <v>348</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8199,10 +8193,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>348</v>
+      </c>
+      <c r="F179" t="s">
         <v>349</v>
-      </c>
-      <c r="F179" t="s">
-        <v>350</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8228,10 +8222,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>350</v>
+      </c>
+      <c r="F180" t="s">
         <v>351</v>
-      </c>
-      <c r="F180" t="s">
-        <v>352</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8257,10 +8251,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>352</v>
+      </c>
+      <c r="F181" t="s">
         <v>353</v>
-      </c>
-      <c r="F181" t="s">
-        <v>354</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8286,10 +8280,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>354</v>
+      </c>
+      <c r="F182" t="s">
         <v>355</v>
-      </c>
-      <c r="F182" t="s">
-        <v>356</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8315,10 +8309,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>356</v>
+      </c>
+      <c r="F183" t="s">
         <v>357</v>
-      </c>
-      <c r="F183" t="s">
-        <v>358</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8344,10 +8338,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>358</v>
+      </c>
+      <c r="F184" t="s">
         <v>359</v>
-      </c>
-      <c r="F184" t="s">
-        <v>360</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8402,10 +8396,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>360</v>
+      </c>
+      <c r="F186" t="s">
         <v>361</v>
-      </c>
-      <c r="F186" t="s">
-        <v>362</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8431,10 +8425,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>362</v>
+      </c>
+      <c r="F187" t="s">
         <v>363</v>
-      </c>
-      <c r="F187" t="s">
-        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8460,10 +8454,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>364</v>
+      </c>
+      <c r="F188" t="s">
         <v>365</v>
-      </c>
-      <c r="F188" t="s">
-        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -8489,10 +8483,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>366</v>
+      </c>
+      <c r="F189" t="s">
         <v>367</v>
-      </c>
-      <c r="F189" t="s">
-        <v>368</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8518,10 +8512,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>368</v>
+      </c>
+      <c r="F190" t="s">
         <v>369</v>
-      </c>
-      <c r="F190" t="s">
-        <v>370</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -8547,10 +8541,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>370</v>
+      </c>
+      <c r="F191" t="s">
         <v>371</v>
-      </c>
-      <c r="F191" t="s">
-        <v>372</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8576,10 +8570,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>372</v>
+      </c>
+      <c r="F192" t="s">
         <v>373</v>
-      </c>
-      <c r="F192" t="s">
-        <v>374</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8605,10 +8599,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>374</v>
+      </c>
+      <c r="F193" t="s">
         <v>375</v>
-      </c>
-      <c r="F193" t="s">
-        <v>376</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8634,10 +8628,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>376</v>
+      </c>
+      <c r="F194" t="s">
         <v>377</v>
-      </c>
-      <c r="F194" t="s">
-        <v>378</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8663,10 +8657,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>378</v>
+      </c>
+      <c r="F195" t="s">
         <v>379</v>
-      </c>
-      <c r="F195" t="s">
-        <v>380</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8692,10 +8686,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>380</v>
+      </c>
+      <c r="F196" t="s">
         <v>381</v>
-      </c>
-      <c r="F196" t="s">
-        <v>382</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8721,10 +8715,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>382</v>
+      </c>
+      <c r="F197" t="s">
         <v>383</v>
-      </c>
-      <c r="F197" t="s">
-        <v>384</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8750,10 +8744,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>384</v>
+      </c>
+      <c r="F198" t="s">
         <v>385</v>
-      </c>
-      <c r="F198" t="s">
-        <v>386</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8779,10 +8773,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>386</v>
+      </c>
+      <c r="F199" t="s">
         <v>387</v>
-      </c>
-      <c r="F199" t="s">
-        <v>388</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8808,10 +8802,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>388</v>
+      </c>
+      <c r="F200" t="s">
         <v>389</v>
-      </c>
-      <c r="F200" t="s">
-        <v>390</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8837,10 +8831,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>390</v>
+      </c>
+      <c r="F201" t="s">
         <v>391</v>
-      </c>
-      <c r="F201" t="s">
-        <v>392</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8866,10 +8860,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>392</v>
+      </c>
+      <c r="F202" t="s">
         <v>393</v>
-      </c>
-      <c r="F202" t="s">
-        <v>394</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8895,10 +8889,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>394</v>
+      </c>
+      <c r="F203" t="s">
         <v>395</v>
-      </c>
-      <c r="F203" t="s">
-        <v>396</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8924,10 +8918,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>396</v>
+      </c>
+      <c r="F204" t="s">
         <v>397</v>
-      </c>
-      <c r="F204" t="s">
-        <v>398</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -8953,10 +8947,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>398</v>
+      </c>
+      <c r="F205" t="s">
         <v>399</v>
-      </c>
-      <c r="F205" t="s">
-        <v>400</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -8982,10 +8976,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>400</v>
+      </c>
+      <c r="F206" t="s">
         <v>401</v>
-      </c>
-      <c r="F206" t="s">
-        <v>402</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9011,10 +9005,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>402</v>
+      </c>
+      <c r="F207" t="s">
         <v>403</v>
-      </c>
-      <c r="F207" t="s">
-        <v>404</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9040,10 +9034,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>404</v>
+      </c>
+      <c r="F208" t="s">
         <v>405</v>
-      </c>
-      <c r="F208" t="s">
-        <v>406</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9069,10 +9063,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>406</v>
+      </c>
+      <c r="F209" t="s">
         <v>407</v>
-      </c>
-      <c r="F209" t="s">
-        <v>408</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9098,10 +9092,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>408</v>
+      </c>
+      <c r="F210" t="s">
         <v>409</v>
-      </c>
-      <c r="F210" t="s">
-        <v>410</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9127,10 +9121,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>410</v>
+      </c>
+      <c r="F211" t="s">
         <v>411</v>
-      </c>
-      <c r="F211" t="s">
-        <v>412</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9156,10 +9150,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>412</v>
+      </c>
+      <c r="F212" t="s">
         <v>413</v>
-      </c>
-      <c r="F212" t="s">
-        <v>414</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9185,10 +9179,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>414</v>
+      </c>
+      <c r="F213" t="s">
         <v>415</v>
-      </c>
-      <c r="F213" t="s">
-        <v>416</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9214,10 +9208,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>416</v>
+      </c>
+      <c r="F214" t="s">
         <v>417</v>
-      </c>
-      <c r="F214" t="s">
-        <v>418</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9243,10 +9237,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>418</v>
+      </c>
+      <c r="F215" t="s">
         <v>419</v>
-      </c>
-      <c r="F215" t="s">
-        <v>420</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9272,10 +9266,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>420</v>
+      </c>
+      <c r="F216" t="s">
         <v>421</v>
-      </c>
-      <c r="F216" t="s">
-        <v>422</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9301,10 +9295,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>422</v>
+      </c>
+      <c r="F217" t="s">
         <v>423</v>
-      </c>
-      <c r="F217" t="s">
-        <v>424</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9330,10 +9324,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>424</v>
+      </c>
+      <c r="F218" t="s">
         <v>425</v>
-      </c>
-      <c r="F218" t="s">
-        <v>426</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9359,10 +9353,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>426</v>
+      </c>
+      <c r="F219" t="s">
         <v>427</v>
-      </c>
-      <c r="F219" t="s">
-        <v>428</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9388,10 +9382,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>428</v>
+      </c>
+      <c r="F220" t="s">
         <v>429</v>
-      </c>
-      <c r="F220" t="s">
-        <v>430</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -9417,10 +9411,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>430</v>
+      </c>
+      <c r="F221" t="s">
         <v>431</v>
-      </c>
-      <c r="F221" t="s">
-        <v>432</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9446,10 +9440,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>432</v>
+      </c>
+      <c r="F222" t="s">
         <v>433</v>
-      </c>
-      <c r="F222" t="s">
-        <v>434</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9475,10 +9469,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>434</v>
+      </c>
+      <c r="F223" t="s">
         <v>435</v>
-      </c>
-      <c r="F223" t="s">
-        <v>436</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9504,10 +9498,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>436</v>
+      </c>
+      <c r="F224" t="s">
         <v>437</v>
-      </c>
-      <c r="F224" t="s">
-        <v>438</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9533,10 +9527,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>438</v>
+      </c>
+      <c r="F225" t="s">
         <v>439</v>
-      </c>
-      <c r="F225" t="s">
-        <v>440</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9562,10 +9556,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>440</v>
+      </c>
+      <c r="F226" t="s">
         <v>441</v>
-      </c>
-      <c r="F226" t="s">
-        <v>442</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9591,10 +9585,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>442</v>
+      </c>
+      <c r="F227" t="s">
         <v>443</v>
-      </c>
-      <c r="F227" t="s">
-        <v>444</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9620,10 +9614,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>444</v>
+      </c>
+      <c r="F228" t="s">
         <v>445</v>
-      </c>
-      <c r="F228" t="s">
-        <v>446</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9649,10 +9643,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>446</v>
+      </c>
+      <c r="F229" t="s">
         <v>447</v>
-      </c>
-      <c r="F229" t="s">
-        <v>448</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9678,10 +9672,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>448</v>
+      </c>
+      <c r="F230" t="s">
         <v>449</v>
-      </c>
-      <c r="F230" t="s">
-        <v>450</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9707,10 +9701,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>450</v>
+      </c>
+      <c r="F231" t="s">
         <v>451</v>
-      </c>
-      <c r="F231" t="s">
-        <v>452</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9736,10 +9730,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>452</v>
+      </c>
+      <c r="F232" t="s">
         <v>453</v>
-      </c>
-      <c r="F232" t="s">
-        <v>454</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9765,10 +9759,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>454</v>
+      </c>
+      <c r="F233" t="s">
         <v>455</v>
-      </c>
-      <c r="F233" t="s">
-        <v>456</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9794,10 +9788,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>456</v>
+      </c>
+      <c r="F234" t="s">
         <v>457</v>
-      </c>
-      <c r="F234" t="s">
-        <v>458</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9823,10 +9817,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>458</v>
+      </c>
+      <c r="F235" t="s">
         <v>459</v>
-      </c>
-      <c r="F235" t="s">
-        <v>460</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9852,10 +9846,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>460</v>
+      </c>
+      <c r="F236" t="s">
         <v>461</v>
-      </c>
-      <c r="F236" t="s">
-        <v>462</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9881,10 +9875,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>462</v>
+      </c>
+      <c r="F237" t="s">
         <v>463</v>
-      </c>
-      <c r="F237" t="s">
-        <v>464</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9910,10 +9904,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>464</v>
+      </c>
+      <c r="F238" t="s">
         <v>465</v>
-      </c>
-      <c r="F238" t="s">
-        <v>466</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9939,10 +9933,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>466</v>
+      </c>
+      <c r="F239" t="s">
         <v>467</v>
-      </c>
-      <c r="F239" t="s">
-        <v>468</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9968,10 +9962,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>468</v>
+      </c>
+      <c r="F240" t="s">
         <v>469</v>
-      </c>
-      <c r="F240" t="s">
-        <v>470</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9997,10 +9991,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>470</v>
+      </c>
+      <c r="F241" t="s">
         <v>471</v>
-      </c>
-      <c r="F241" t="s">
-        <v>472</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10026,10 +10020,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>472</v>
+      </c>
+      <c r="F242" t="s">
         <v>473</v>
-      </c>
-      <c r="F242" t="s">
-        <v>474</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10055,10 +10049,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>474</v>
+      </c>
+      <c r="F243" t="s">
         <v>475</v>
-      </c>
-      <c r="F243" t="s">
-        <v>476</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10084,10 +10078,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>476</v>
+      </c>
+      <c r="F244" t="s">
         <v>477</v>
-      </c>
-      <c r="F244" t="s">
-        <v>478</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10113,10 +10107,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>478</v>
+      </c>
+      <c r="F245" t="s">
         <v>479</v>
-      </c>
-      <c r="F245" t="s">
-        <v>480</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10142,10 +10136,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>480</v>
+      </c>
+      <c r="F246" t="s">
         <v>481</v>
-      </c>
-      <c r="F246" t="s">
-        <v>482</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -10171,10 +10165,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>482</v>
+      </c>
+      <c r="F247" t="s">
         <v>483</v>
-      </c>
-      <c r="F247" t="s">
-        <v>484</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10200,10 +10194,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>484</v>
+      </c>
+      <c r="F248" t="s">
         <v>485</v>
-      </c>
-      <c r="F248" t="s">
-        <v>486</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10229,10 +10223,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>486</v>
+      </c>
+      <c r="F249" t="s">
         <v>487</v>
-      </c>
-      <c r="F249" t="s">
-        <v>488</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10258,10 +10252,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>488</v>
+      </c>
+      <c r="F250" t="s">
         <v>489</v>
-      </c>
-      <c r="F250" t="s">
-        <v>490</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10287,10 +10281,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>490</v>
+      </c>
+      <c r="F251" t="s">
         <v>491</v>
-      </c>
-      <c r="F251" t="s">
-        <v>492</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10316,10 +10310,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>492</v>
+      </c>
+      <c r="F252" t="s">
         <v>493</v>
-      </c>
-      <c r="F252" t="s">
-        <v>494</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10345,10 +10339,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>494</v>
+      </c>
+      <c r="F253" t="s">
         <v>495</v>
-      </c>
-      <c r="F253" t="s">
-        <v>496</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10374,10 +10368,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>496</v>
+      </c>
+      <c r="F254" t="s">
         <v>497</v>
-      </c>
-      <c r="F254" t="s">
-        <v>498</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10403,10 +10397,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>498</v>
+      </c>
+      <c r="F255" t="s">
         <v>499</v>
-      </c>
-      <c r="F255" t="s">
-        <v>500</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10432,10 +10426,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>500</v>
+      </c>
+      <c r="F256" t="s">
         <v>501</v>
-      </c>
-      <c r="F256" t="s">
-        <v>502</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10461,10 +10455,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>502</v>
+      </c>
+      <c r="F257" t="s">
         <v>503</v>
-      </c>
-      <c r="F257" t="s">
-        <v>504</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10490,10 +10484,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>504</v>
+      </c>
+      <c r="F258" t="s">
         <v>505</v>
-      </c>
-      <c r="F258" t="s">
-        <v>506</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10519,10 +10513,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>506</v>
+      </c>
+      <c r="F259" t="s">
         <v>507</v>
-      </c>
-      <c r="F259" t="s">
-        <v>508</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10548,10 +10542,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>508</v>
+      </c>
+      <c r="F260" t="s">
         <v>509</v>
-      </c>
-      <c r="F260" t="s">
-        <v>510</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10577,10 +10571,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>510</v>
+      </c>
+      <c r="F261" t="s">
         <v>511</v>
-      </c>
-      <c r="F261" t="s">
-        <v>512</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10606,10 +10600,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>512</v>
+      </c>
+      <c r="F262" t="s">
         <v>513</v>
-      </c>
-      <c r="F262" t="s">
-        <v>514</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10635,10 +10629,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>514</v>
+      </c>
+      <c r="F263" t="s">
         <v>515</v>
-      </c>
-      <c r="F263" t="s">
-        <v>516</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10664,10 +10658,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>516</v>
+      </c>
+      <c r="F264" t="s">
         <v>517</v>
-      </c>
-      <c r="F264" t="s">
-        <v>518</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10693,10 +10687,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>518</v>
+      </c>
+      <c r="F265" t="s">
         <v>519</v>
-      </c>
-      <c r="F265" t="s">
-        <v>520</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10722,10 +10716,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>520</v>
+      </c>
+      <c r="F266" t="s">
         <v>521</v>
-      </c>
-      <c r="F266" t="s">
-        <v>522</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10751,10 +10745,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>522</v>
+      </c>
+      <c r="F267" t="s">
         <v>523</v>
-      </c>
-      <c r="F267" t="s">
-        <v>524</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10780,10 +10774,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>524</v>
+      </c>
+      <c r="F268" t="s">
         <v>525</v>
-      </c>
-      <c r="F268" t="s">
-        <v>526</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10809,10 +10803,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>526</v>
+      </c>
+      <c r="F269" t="s">
         <v>527</v>
-      </c>
-      <c r="F269" t="s">
-        <v>528</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10838,10 +10832,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>528</v>
+      </c>
+      <c r="F270" t="s">
         <v>529</v>
-      </c>
-      <c r="F270" t="s">
-        <v>530</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10867,10 +10861,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>530</v>
+      </c>
+      <c r="F271" t="s">
         <v>531</v>
-      </c>
-      <c r="F271" t="s">
-        <v>532</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10896,10 +10890,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>532</v>
+      </c>
+      <c r="F272" t="s">
         <v>533</v>
-      </c>
-      <c r="F272" t="s">
-        <v>534</v>
       </c>
       <c r="G272" t="n">
         <v>3</v>
@@ -10925,10 +10919,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
+        <v>534</v>
+      </c>
+      <c r="F273" t="s">
         <v>535</v>
-      </c>
-      <c r="F273" t="s">
-        <v>536</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10954,10 +10948,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>536</v>
+      </c>
+      <c r="F274" t="s">
         <v>537</v>
-      </c>
-      <c r="F274" t="s">
-        <v>538</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10983,10 +10977,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
+        <v>538</v>
+      </c>
+      <c r="F275" t="s">
         <v>539</v>
-      </c>
-      <c r="F275" t="s">
-        <v>540</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -11012,10 +11006,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
+        <v>540</v>
+      </c>
+      <c r="F276" t="s">
         <v>541</v>
-      </c>
-      <c r="F276" t="s">
-        <v>542</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11041,10 +11035,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
+        <v>542</v>
+      </c>
+      <c r="F277" t="s">
         <v>543</v>
-      </c>
-      <c r="F277" t="s">
-        <v>544</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11070,10 +11064,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
+        <v>544</v>
+      </c>
+      <c r="F278" t="s">
         <v>545</v>
-      </c>
-      <c r="F278" t="s">
-        <v>546</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11099,10 +11093,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>546</v>
+      </c>
+      <c r="F279" t="s">
         <v>547</v>
-      </c>
-      <c r="F279" t="s">
-        <v>548</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11128,10 +11122,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
+        <v>548</v>
+      </c>
+      <c r="F280" t="s">
         <v>549</v>
-      </c>
-      <c r="F280" t="s">
-        <v>550</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11157,10 +11151,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
+        <v>550</v>
+      </c>
+      <c r="F281" t="s">
         <v>551</v>
-      </c>
-      <c r="F281" t="s">
-        <v>552</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11186,10 +11180,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
+        <v>552</v>
+      </c>
+      <c r="F282" t="s">
         <v>553</v>
-      </c>
-      <c r="F282" t="s">
-        <v>554</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11215,10 +11209,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
+        <v>554</v>
+      </c>
+      <c r="F283" t="s">
         <v>555</v>
-      </c>
-      <c r="F283" t="s">
-        <v>556</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11244,10 +11238,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
+        <v>556</v>
+      </c>
+      <c r="F284" t="s">
         <v>557</v>
-      </c>
-      <c r="F284" t="s">
-        <v>558</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11273,10 +11267,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>558</v>
+      </c>
+      <c r="F285" t="s">
         <v>559</v>
-      </c>
-      <c r="F285" t="s">
-        <v>560</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11302,10 +11296,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
+        <v>560</v>
+      </c>
+      <c r="F286" t="s">
         <v>561</v>
-      </c>
-      <c r="F286" t="s">
-        <v>562</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11331,10 +11325,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
+        <v>562</v>
+      </c>
+      <c r="F287" t="s">
         <v>563</v>
-      </c>
-      <c r="F287" t="s">
-        <v>564</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11360,10 +11354,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
+        <v>564</v>
+      </c>
+      <c r="F288" t="s">
         <v>565</v>
-      </c>
-      <c r="F288" t="s">
-        <v>566</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11389,10 +11383,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
+        <v>566</v>
+      </c>
+      <c r="F289" t="s">
         <v>567</v>
-      </c>
-      <c r="F289" t="s">
-        <v>568</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11418,10 +11412,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
+        <v>568</v>
+      </c>
+      <c r="F290" t="s">
         <v>569</v>
-      </c>
-      <c r="F290" t="s">
-        <v>570</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11447,10 +11441,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
+        <v>570</v>
+      </c>
+      <c r="F291" t="s">
         <v>571</v>
-      </c>
-      <c r="F291" t="s">
-        <v>572</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11476,10 +11470,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
+        <v>572</v>
+      </c>
+      <c r="F292" t="s">
         <v>573</v>
-      </c>
-      <c r="F292" t="s">
-        <v>574</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11505,10 +11499,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
+        <v>574</v>
+      </c>
+      <c r="F293" t="s">
         <v>575</v>
-      </c>
-      <c r="F293" t="s">
-        <v>576</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11534,10 +11528,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
+        <v>576</v>
+      </c>
+      <c r="F294" t="s">
         <v>577</v>
-      </c>
-      <c r="F294" t="s">
-        <v>578</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -11563,10 +11557,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
+        <v>578</v>
+      </c>
+      <c r="F295" t="s">
         <v>579</v>
-      </c>
-      <c r="F295" t="s">
-        <v>580</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11592,10 +11586,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
+        <v>580</v>
+      </c>
+      <c r="F296" t="s">
         <v>581</v>
-      </c>
-      <c r="F296" t="s">
-        <v>582</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11621,10 +11615,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
+        <v>582</v>
+      </c>
+      <c r="F297" t="s">
         <v>583</v>
-      </c>
-      <c r="F297" t="s">
-        <v>584</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11650,10 +11644,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
+        <v>584</v>
+      </c>
+      <c r="F298" t="s">
         <v>585</v>
-      </c>
-      <c r="F298" t="s">
-        <v>586</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11679,10 +11673,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
+        <v>586</v>
+      </c>
+      <c r="F299" t="s">
         <v>587</v>
-      </c>
-      <c r="F299" t="s">
-        <v>588</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11708,10 +11702,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
+        <v>588</v>
+      </c>
+      <c r="F300" t="s">
         <v>589</v>
-      </c>
-      <c r="F300" t="s">
-        <v>590</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11737,10 +11731,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
+        <v>590</v>
+      </c>
+      <c r="F301" t="s">
         <v>591</v>
-      </c>
-      <c r="F301" t="s">
-        <v>592</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11766,10 +11760,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
+        <v>592</v>
+      </c>
+      <c r="F302" t="s">
         <v>593</v>
-      </c>
-      <c r="F302" t="s">
-        <v>594</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11795,10 +11789,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
+        <v>594</v>
+      </c>
+      <c r="F303" t="s">
         <v>595</v>
-      </c>
-      <c r="F303" t="s">
-        <v>596</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11824,10 +11818,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
+        <v>596</v>
+      </c>
+      <c r="F304" t="s">
         <v>597</v>
-      </c>
-      <c r="F304" t="s">
-        <v>598</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11853,10 +11847,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
+        <v>598</v>
+      </c>
+      <c r="F305" t="s">
         <v>599</v>
-      </c>
-      <c r="F305" t="s">
-        <v>600</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11882,10 +11876,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
+        <v>600</v>
+      </c>
+      <c r="F306" t="s">
         <v>601</v>
-      </c>
-      <c r="F306" t="s">
-        <v>602</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11911,10 +11905,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
+        <v>602</v>
+      </c>
+      <c r="F307" t="s">
         <v>603</v>
-      </c>
-      <c r="F307" t="s">
-        <v>604</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11940,10 +11934,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
+        <v>604</v>
+      </c>
+      <c r="F308" t="s">
         <v>605</v>
-      </c>
-      <c r="F308" t="s">
-        <v>606</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11969,10 +11963,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
+        <v>606</v>
+      </c>
+      <c r="F309" t="s">
         <v>607</v>
-      </c>
-      <c r="F309" t="s">
-        <v>608</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11998,10 +11992,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
+        <v>608</v>
+      </c>
+      <c r="F310" t="s">
         <v>609</v>
-      </c>
-      <c r="F310" t="s">
-        <v>610</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12027,10 +12021,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
+        <v>610</v>
+      </c>
+      <c r="F311" t="s">
         <v>611</v>
-      </c>
-      <c r="F311" t="s">
-        <v>612</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12056,10 +12050,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
+        <v>612</v>
+      </c>
+      <c r="F312" t="s">
         <v>613</v>
-      </c>
-      <c r="F312" t="s">
-        <v>614</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12085,10 +12079,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
+        <v>614</v>
+      </c>
+      <c r="F313" t="s">
         <v>615</v>
-      </c>
-      <c r="F313" t="s">
-        <v>616</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12114,10 +12108,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
+        <v>616</v>
+      </c>
+      <c r="F314" t="s">
         <v>617</v>
-      </c>
-      <c r="F314" t="s">
-        <v>618</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12143,10 +12137,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
+        <v>618</v>
+      </c>
+      <c r="F315" t="s">
         <v>619</v>
-      </c>
-      <c r="F315" t="s">
-        <v>620</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12172,10 +12166,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
+        <v>620</v>
+      </c>
+      <c r="F316" t="s">
         <v>621</v>
-      </c>
-      <c r="F316" t="s">
-        <v>622</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12201,10 +12195,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
+        <v>622</v>
+      </c>
+      <c r="F317" t="s">
         <v>623</v>
-      </c>
-      <c r="F317" t="s">
-        <v>624</v>
       </c>
       <c r="G317" t="n">
         <v>2</v>
@@ -12230,10 +12224,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
+        <v>624</v>
+      </c>
+      <c r="F318" t="s">
         <v>625</v>
-      </c>
-      <c r="F318" t="s">
-        <v>626</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12259,10 +12253,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
+        <v>626</v>
+      </c>
+      <c r="F319" t="s">
         <v>627</v>
-      </c>
-      <c r="F319" t="s">
-        <v>628</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12288,10 +12282,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
+        <v>628</v>
+      </c>
+      <c r="F320" t="s">
         <v>629</v>
-      </c>
-      <c r="F320" t="s">
-        <v>630</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12317,10 +12311,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
+        <v>630</v>
+      </c>
+      <c r="F321" t="s">
         <v>631</v>
-      </c>
-      <c r="F321" t="s">
-        <v>632</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12346,10 +12340,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
+        <v>632</v>
+      </c>
+      <c r="F322" t="s">
         <v>633</v>
-      </c>
-      <c r="F322" t="s">
-        <v>634</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12375,10 +12369,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
+        <v>634</v>
+      </c>
+      <c r="F323" t="s">
         <v>635</v>
-      </c>
-      <c r="F323" t="s">
-        <v>636</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12404,10 +12398,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
+        <v>636</v>
+      </c>
+      <c r="F324" t="s">
         <v>637</v>
-      </c>
-      <c r="F324" t="s">
-        <v>638</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12433,10 +12427,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
+        <v>638</v>
+      </c>
+      <c r="F325" t="s">
         <v>639</v>
-      </c>
-      <c r="F325" t="s">
-        <v>640</v>
       </c>
       <c r="G325" t="n">
         <v>3</v>
@@ -12462,10 +12456,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
+        <v>640</v>
+      </c>
+      <c r="F326" t="s">
         <v>641</v>
-      </c>
-      <c r="F326" t="s">
-        <v>642</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -12491,10 +12485,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
+        <v>642</v>
+      </c>
+      <c r="F327" t="s">
         <v>643</v>
-      </c>
-      <c r="F327" t="s">
-        <v>644</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12520,10 +12514,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
+        <v>644</v>
+      </c>
+      <c r="F328" t="s">
         <v>645</v>
-      </c>
-      <c r="F328" t="s">
-        <v>646</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12549,10 +12543,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
+        <v>646</v>
+      </c>
+      <c r="F329" t="s">
         <v>647</v>
-      </c>
-      <c r="F329" t="s">
-        <v>648</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -12578,10 +12572,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
+        <v>648</v>
+      </c>
+      <c r="F330" t="s">
         <v>649</v>
-      </c>
-      <c r="F330" t="s">
-        <v>650</v>
       </c>
       <c r="G330" t="n">
         <v>2</v>
@@ -12607,10 +12601,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
+        <v>650</v>
+      </c>
+      <c r="F331" t="s">
         <v>651</v>
-      </c>
-      <c r="F331" t="s">
-        <v>652</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12636,10 +12630,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
+        <v>652</v>
+      </c>
+      <c r="F332" t="s">
         <v>653</v>
-      </c>
-      <c r="F332" t="s">
-        <v>654</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12665,10 +12659,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
+        <v>654</v>
+      </c>
+      <c r="F333" t="s">
         <v>655</v>
-      </c>
-      <c r="F333" t="s">
-        <v>656</v>
       </c>
       <c r="G333" t="n">
         <v>5</v>
@@ -12694,10 +12688,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
+        <v>656</v>
+      </c>
+      <c r="F334" t="s">
         <v>657</v>
-      </c>
-      <c r="F334" t="s">
-        <v>658</v>
       </c>
       <c r="G334" t="n">
         <v>17</v>
@@ -12723,10 +12717,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
+        <v>658</v>
+      </c>
+      <c r="F335" t="s">
         <v>659</v>
-      </c>
-      <c r="F335" t="s">
-        <v>660</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12752,10 +12746,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
+        <v>660</v>
+      </c>
+      <c r="F336" t="s">
         <v>661</v>
-      </c>
-      <c r="F336" t="s">
-        <v>662</v>
       </c>
       <c r="G336" t="n">
         <v>37</v>
@@ -12781,10 +12775,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
+        <v>662</v>
+      </c>
+      <c r="F337" t="s">
         <v>663</v>
-      </c>
-      <c r="F337" t="s">
-        <v>664</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12810,10 +12804,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
+        <v>664</v>
+      </c>
+      <c r="F338" t="s">
         <v>665</v>
-      </c>
-      <c r="F338" t="s">
-        <v>666</v>
       </c>
       <c r="G338" t="n">
         <v>2</v>
@@ -12839,10 +12833,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
+        <v>666</v>
+      </c>
+      <c r="F339" t="s">
         <v>667</v>
-      </c>
-      <c r="F339" t="s">
-        <v>668</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12868,10 +12862,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
+        <v>668</v>
+      </c>
+      <c r="F340" t="s">
         <v>669</v>
-      </c>
-      <c r="F340" t="s">
-        <v>670</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12897,10 +12891,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
+        <v>670</v>
+      </c>
+      <c r="F341" t="s">
         <v>671</v>
-      </c>
-      <c r="F341" t="s">
-        <v>672</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12926,10 +12920,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
+        <v>672</v>
+      </c>
+      <c r="F342" t="s">
         <v>673</v>
-      </c>
-      <c r="F342" t="s">
-        <v>674</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12955,10 +12949,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
+        <v>674</v>
+      </c>
+      <c r="F343" t="s">
         <v>675</v>
-      </c>
-      <c r="F343" t="s">
-        <v>676</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12984,10 +12978,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
+        <v>676</v>
+      </c>
+      <c r="F344" t="s">
         <v>677</v>
-      </c>
-      <c r="F344" t="s">
-        <v>678</v>
       </c>
       <c r="G344" t="n">
         <v>2</v>
@@ -13013,10 +13007,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
+        <v>678</v>
+      </c>
+      <c r="F345" t="s">
         <v>679</v>
-      </c>
-      <c r="F345" t="s">
-        <v>680</v>
       </c>
       <c r="G345" t="n">
         <v>3</v>
@@ -13042,10 +13036,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
+        <v>680</v>
+      </c>
+      <c r="F346" t="s">
         <v>681</v>
-      </c>
-      <c r="F346" t="s">
-        <v>682</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -13071,10 +13065,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
+        <v>682</v>
+      </c>
+      <c r="F347" t="s">
         <v>683</v>
-      </c>
-      <c r="F347" t="s">
-        <v>684</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13100,10 +13094,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
+        <v>684</v>
+      </c>
+      <c r="F348" t="s">
         <v>685</v>
-      </c>
-      <c r="F348" t="s">
-        <v>686</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13129,10 +13123,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
+        <v>686</v>
+      </c>
+      <c r="F349" t="s">
         <v>687</v>
-      </c>
-      <c r="F349" t="s">
-        <v>688</v>
       </c>
       <c r="G349" t="n">
         <v>2</v>
@@ -13158,10 +13152,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
+        <v>688</v>
+      </c>
+      <c r="F350" t="s">
         <v>689</v>
-      </c>
-      <c r="F350" t="s">
-        <v>690</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13187,10 +13181,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
+        <v>690</v>
+      </c>
+      <c r="F351" t="s">
         <v>691</v>
-      </c>
-      <c r="F351" t="s">
-        <v>692</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13216,10 +13210,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
+        <v>692</v>
+      </c>
+      <c r="F352" t="s">
         <v>693</v>
-      </c>
-      <c r="F352" t="s">
-        <v>694</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13245,10 +13239,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
+        <v>694</v>
+      </c>
+      <c r="F353" t="s">
         <v>695</v>
-      </c>
-      <c r="F353" t="s">
-        <v>696</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13274,10 +13268,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
+        <v>696</v>
+      </c>
+      <c r="F354" t="s">
         <v>697</v>
-      </c>
-      <c r="F354" t="s">
-        <v>698</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13303,10 +13297,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
+        <v>698</v>
+      </c>
+      <c r="F355" t="s">
         <v>699</v>
-      </c>
-      <c r="F355" t="s">
-        <v>700</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13332,10 +13326,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
+        <v>700</v>
+      </c>
+      <c r="F356" t="s">
         <v>701</v>
-      </c>
-      <c r="F356" t="s">
-        <v>702</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13361,10 +13355,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
+        <v>702</v>
+      </c>
+      <c r="F357" t="s">
         <v>703</v>
-      </c>
-      <c r="F357" t="s">
-        <v>704</v>
       </c>
       <c r="G357" t="n">
         <v>4</v>
@@ -13390,10 +13384,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
+        <v>704</v>
+      </c>
+      <c r="F358" t="s">
         <v>705</v>
-      </c>
-      <c r="F358" t="s">
-        <v>706</v>
       </c>
       <c r="G358" t="n">
         <v>2</v>
@@ -13419,10 +13413,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
+        <v>706</v>
+      </c>
+      <c r="F359" t="s">
         <v>707</v>
-      </c>
-      <c r="F359" t="s">
-        <v>708</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13448,10 +13442,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
+        <v>708</v>
+      </c>
+      <c r="F360" t="s">
         <v>709</v>
-      </c>
-      <c r="F360" t="s">
-        <v>710</v>
       </c>
       <c r="G360" t="n">
         <v>2</v>
@@ -13477,10 +13471,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
+        <v>710</v>
+      </c>
+      <c r="F361" t="s">
         <v>711</v>
-      </c>
-      <c r="F361" t="s">
-        <v>712</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13506,10 +13500,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
+        <v>712</v>
+      </c>
+      <c r="F362" t="s">
         <v>713</v>
-      </c>
-      <c r="F362" t="s">
-        <v>714</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13535,10 +13529,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
+        <v>714</v>
+      </c>
+      <c r="F363" t="s">
         <v>715</v>
-      </c>
-      <c r="F363" t="s">
-        <v>716</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13564,10 +13558,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
+        <v>716</v>
+      </c>
+      <c r="F364" t="s">
         <v>717</v>
-      </c>
-      <c r="F364" t="s">
-        <v>718</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13593,10 +13587,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
+        <v>718</v>
+      </c>
+      <c r="F365" t="s">
         <v>719</v>
-      </c>
-      <c r="F365" t="s">
-        <v>720</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13622,10 +13616,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
+        <v>720</v>
+      </c>
+      <c r="F366" t="s">
         <v>721</v>
-      </c>
-      <c r="F366" t="s">
-        <v>722</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13651,10 +13645,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
+        <v>722</v>
+      </c>
+      <c r="F367" t="s">
         <v>723</v>
-      </c>
-      <c r="F367" t="s">
-        <v>724</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13680,10 +13674,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
+        <v>724</v>
+      </c>
+      <c r="F368" t="s">
         <v>725</v>
-      </c>
-      <c r="F368" t="s">
-        <v>726</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13709,10 +13703,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
+        <v>726</v>
+      </c>
+      <c r="F369" t="s">
         <v>727</v>
-      </c>
-      <c r="F369" t="s">
-        <v>728</v>
       </c>
       <c r="G369" t="n">
         <v>2</v>
@@ -13738,10 +13732,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
+        <v>728</v>
+      </c>
+      <c r="F370" t="s">
         <v>729</v>
-      </c>
-      <c r="F370" t="s">
-        <v>730</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13767,10 +13761,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
+        <v>730</v>
+      </c>
+      <c r="F371" t="s">
         <v>731</v>
-      </c>
-      <c r="F371" t="s">
-        <v>732</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13796,10 +13790,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
+        <v>732</v>
+      </c>
+      <c r="F372" t="s">
         <v>733</v>
-      </c>
-      <c r="F372" t="s">
-        <v>734</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13825,10 +13819,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F373" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13854,10 +13848,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F374" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13883,10 +13877,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F375" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13912,10 +13906,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F376" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13941,10 +13935,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F377" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13970,10 +13964,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F378" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13999,10 +13993,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F379" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14028,10 +14022,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F380" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -14057,10 +14051,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F381" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -14086,10 +14080,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F382" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14115,10 +14109,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F383" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14144,10 +14138,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F384" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14173,10 +14167,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F385" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14202,10 +14196,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F386" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14260,10 +14254,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F388" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14289,10 +14283,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F389" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14318,10 +14312,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F390" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14347,10 +14341,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F391" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14376,10 +14370,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F392" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14405,10 +14399,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F393" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G393" t="n">
         <v>5</v>
@@ -14434,10 +14428,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F394" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14463,10 +14457,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F395" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14492,10 +14486,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
+        <v>596</v>
+      </c>
+      <c r="F396" t="s">
         <v>597</v>
-      </c>
-      <c r="F396" t="s">
-        <v>598</v>
       </c>
       <c r="G396" t="n">
         <v>5</v>
@@ -14521,10 +14515,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F397" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G397" t="n">
         <v>3</v>
@@ -14550,10 +14544,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F398" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14579,10 +14573,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F399" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G399" t="n">
         <v>2</v>
@@ -14608,10 +14602,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F400" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14637,10 +14631,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F401" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G401" t="n">
         <v>2</v>
@@ -14666,10 +14660,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F402" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14695,10 +14689,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="F403" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14724,10 +14718,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F404" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14753,10 +14747,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="F405" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14782,10 +14776,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F406" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14811,10 +14805,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F407" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14840,10 +14834,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F408" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14869,10 +14863,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F409" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14898,10 +14892,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F410" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14927,10 +14921,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F411" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G411" t="n">
         <v>3</v>
@@ -14956,10 +14950,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="F412" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14985,10 +14979,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F413" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -15014,10 +15008,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F414" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -15043,10 +15037,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F415" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15072,10 +15066,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F416" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15101,10 +15095,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F417" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15130,10 +15124,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F418" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15159,10 +15153,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F419" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15188,10 +15182,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F420" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15217,10 +15211,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F421" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15246,10 +15240,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F422" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15275,10 +15269,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F423" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15304,10 +15298,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F424" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15333,10 +15327,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F425" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G425" t="n">
         <v>3</v>
@@ -15362,10 +15356,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F426" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G426" t="n">
         <v>2</v>
@@ -15391,10 +15385,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F427" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15420,10 +15414,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F428" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15449,10 +15443,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F429" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15478,10 +15472,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F430" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15507,10 +15501,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F431" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15536,10 +15530,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F432" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15565,10 +15559,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F433" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15594,10 +15588,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F434" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15623,10 +15617,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F435" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15652,10 +15646,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F436" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15681,10 +15675,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F437" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15710,10 +15704,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F438" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15739,10 +15733,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F439" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15768,10 +15762,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F440" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15797,10 +15791,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F441" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15826,10 +15820,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F442" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15855,10 +15849,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F443" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -15884,10 +15878,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="F444" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -15913,10 +15907,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F445" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -15942,10 +15936,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F446" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -15971,10 +15965,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="F447" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16000,10 +15994,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="F448" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="G448" t="n">
         <v>3</v>
@@ -16029,10 +16023,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F449" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16058,10 +16052,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F450" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
